--- a/medicine/Mort/Cimetière_Bellu/Cimetière_Bellu.xlsx
+++ b/medicine/Mort/Cimetière_Bellu/Cimetière_Bellu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Bellu</t>
+          <t>Cimetière_Bellu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Bellu est un des deux plus célèbres cimetières de Roumanie. L'autre est le « joyeux cimetière de Sapânza » dans le nord du pays.
 Le cimetière Bellu est situé à Bucarest sur une parcelle de terrain de terre donnée à l'administration locale par le baron Barbu Bellu. Il est utilisé depuis 1858.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Bellu</t>
+          <t>Cimetière_Bellu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les personnes célèbres enterrées au cimetière Bellu on trouve :
 A
@@ -531,7 +545,7 @@
 Toma Caragiu
 Corneliu Codreanu et son épouse Elena
 Henri Coandă
-Dina Cocea[1]
+Dina Cocea
 Corneliu Coposu
 George Coșbuc
 Gheorghe Cozorici
@@ -622,7 +636,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Bellu</t>
+          <t>Cimetière_Bellu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -640,7 +654,9 @@
           <t>Carré militaire français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Un « carré français » comprend plus d'une centaine de tombes de soldats du corps expéditionnaire français de la Première Guerre mondiale morts pour la France entre 1917 et 1919. Les tombes sont reconnaissables à leurs épées plantées en terre.
 Liste des noms des soldats enterrés dans le carré français : relevé
